--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/Mogo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.2 20170228/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="120">
   <si>
     <t>No</t>
   </si>
@@ -418,6 +418,108 @@
     <t>是</t>
     <rPh sb="0" eb="1">
       <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源录入及编辑性能优化（kafka）</t>
+    <rPh sb="0" eb="1">
+      <t>fang'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bina'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing'neng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC,partnerApp</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图右侧搜索下拉</t>
+    <rPh sb="0" eb="1">
+      <t>fang'tai'tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sou'suo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xia'la</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>fangtai</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图装修操作页面刷新</t>
+    <rPh sb="0" eb="1">
+      <t>fang'tai'tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuang'xiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ye'm</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shua'xin</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中式付款方式编辑</t>
+    <rPh sb="0" eb="1">
+      <t>ji'zhong'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'kuan'fang'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian'ji</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC,partnerApp</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息列表展示</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'shi</t>
     </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -446,20 +548,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -496,24 +598,24 @@
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -1541,7 +1643,7 @@
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2342,12 +2444,24 @@
       <c r="W14" s="60"/>
     </row>
     <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="A15" s="51">
+        <v>14</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>111</v>
+      </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
@@ -2367,12 +2481,24 @@
       <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="A16" s="51">
+        <v>15</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
@@ -2392,12 +2518,24 @@
       <c r="W16" s="60"/>
     </row>
     <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="57"/>
+      <c r="A17" s="51">
+        <v>16</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>114</v>
+      </c>
       <c r="G17" s="53"/>
       <c r="H17" s="54"/>
       <c r="I17" s="53"/>
@@ -2417,12 +2555,24 @@
       <c r="W17" s="68"/>
     </row>
     <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="57"/>
+      <c r="A18" s="51">
+        <v>17</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>117</v>
+      </c>
       <c r="G18" s="53"/>
       <c r="H18" s="54"/>
       <c r="I18" s="53"/>
@@ -2442,12 +2592,24 @@
       <c r="W18" s="68"/>
     </row>
     <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="57"/>
+      <c r="A19" s="51">
+        <v>18</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>118</v>
+      </c>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
       <c r="I19" s="53"/>

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="122">
   <si>
     <t>No</t>
   </si>
@@ -520,6 +520,26 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>zhan'shi</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>58字段对应关系</t>
+    <rPh sb="2" eb="3">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan'xi</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <rPh sb="0" eb="1">
+      <t>ding'shi'qi</t>
     </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1643,7 +1663,7 @@
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2462,7 +2482,9 @@
       <c r="F15" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
@@ -2499,7 +2521,9 @@
       <c r="F16" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
       <c r="J16" s="54"/>
@@ -2536,7 +2560,9 @@
       <c r="F17" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="H17" s="54"/>
       <c r="I17" s="53"/>
       <c r="J17" s="54"/>
@@ -2573,7 +2599,9 @@
       <c r="F18" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="H18" s="54"/>
       <c r="I18" s="53"/>
       <c r="J18" s="54"/>
@@ -2610,7 +2638,9 @@
       <c r="F19" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="H19" s="54"/>
       <c r="I19" s="53"/>
       <c r="J19" s="54"/>
@@ -2629,13 +2659,27 @@
       <c r="W19" s="68"/>
     </row>
     <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="53"/>
+      <c r="A20" s="51">
+        <v>19</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="H20" s="54"/>
       <c r="I20" s="53"/>
       <c r="J20" s="54"/>
@@ -6181,7 +6225,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="440" windowWidth="27960" windowHeight="17560"/>
+    <workbookView xWindow="-3780" yWindow="-20520" windowWidth="32560" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="125">
   <si>
     <t>No</t>
   </si>
@@ -541,6 +541,21 @@
     <rPh sb="0" eb="1">
       <t>ding'shi'qi</t>
     </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>思聪</t>
+    <rPh sb="0" eb="1">
+      <t>si'cong</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东入驻页面搜索引擎优化</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterPC</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1663,7 +1678,7 @@
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1677,7 +1692,7 @@
     <col min="8" max="8" width="13" style="48" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
     <col min="10" max="10" width="10" style="48" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="11.83203125" style="47" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="47" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" style="48" customWidth="1"/>
@@ -2485,13 +2500,25 @@
       <c r="G15" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="54">
+        <v>42788</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="54">
+        <v>42788</v>
+      </c>
       <c r="K15" s="64"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="L15" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O15" s="53"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="54"/>
@@ -2524,13 +2551,25 @@
       <c r="G16" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="54">
+        <v>42788</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="54">
+        <v>42788</v>
+      </c>
       <c r="K16" s="64"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
+      <c r="L16" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O16" s="53"/>
       <c r="P16" s="65"/>
       <c r="Q16" s="54"/>
@@ -2563,13 +2602,25 @@
       <c r="G17" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="54">
+        <v>42795</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="54">
+        <v>42795</v>
+      </c>
       <c r="K17" s="53"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
+      <c r="L17" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="54"/>
@@ -2602,13 +2653,25 @@
       <c r="G18" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="54">
+        <v>42795</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="54">
+        <v>42795</v>
+      </c>
       <c r="K18" s="53"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
+      <c r="L18" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O18" s="62"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="54"/>
@@ -2641,13 +2704,25 @@
       <c r="G19" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="54">
+        <v>42795</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="54">
+        <v>42795</v>
+      </c>
       <c r="K19" s="53"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
+      <c r="L19" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O19" s="62"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="54"/>
@@ -2680,13 +2755,25 @@
       <c r="G20" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="54">
+        <v>42795</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="54">
+        <v>42795</v>
+      </c>
       <c r="K20" s="53"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
+      <c r="L20" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="54"/>
@@ -2698,20 +2785,46 @@
       <c r="W20" s="72"/>
     </row>
     <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="A21" s="51">
+        <v>20</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="54">
+        <v>42797</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="54">
+        <v>42797</v>
+      </c>
       <c r="K21" s="53"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="L21" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="54"/>

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3780" yWindow="-20520" windowWidth="32560" windowHeight="17560"/>
+    <workbookView xWindow="-9600" yWindow="-21160" windowWidth="38400" windowHeight="21160"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="129">
   <si>
     <t>No</t>
   </si>
@@ -551,12 +551,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>renterPC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOW-236</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2657</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2495</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>房东入驻页面搜索引擎优化</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>renterPC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <t>DV-2727</t>
   </si>
 </sst>
 </file>
@@ -779,7 +794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -972,6 +987,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1009,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,9 +1272,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1262,21 +1287,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1303,6 +1313,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1677,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1758,10 +1801,10 @@
       <c r="Q1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="82" t="s">
+      <c r="R1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="82" t="s">
+      <c r="S1" s="81" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="50" t="s">
@@ -1820,12 +1863,12 @@
       </c>
       <c r="O2" s="53"/>
       <c r="P2" s="62"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84" t="s">
+      <c r="Q2" s="79"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="81"/>
+      <c r="T2" s="80"/>
       <c r="U2" s="59"/>
       <c r="V2" s="65"/>
       <c r="W2" s="68"/>
@@ -1874,9 +1917,9 @@
       </c>
       <c r="O3" s="53"/>
       <c r="P3" s="62"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="84" t="s">
+      <c r="Q3" s="79"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="92" t="s">
         <v>76</v>
       </c>
       <c r="T3" s="76"/>
@@ -1928,9 +1971,9 @@
       </c>
       <c r="O4" s="53"/>
       <c r="P4" s="62"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="85" t="s">
+      <c r="Q4" s="79"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="93" t="s">
         <v>84</v>
       </c>
       <c r="T4" s="76"/>
@@ -1982,9 +2025,9 @@
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="62"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="85" t="s">
+      <c r="Q5" s="79"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="93" t="s">
         <v>85</v>
       </c>
       <c r="T5" s="77"/>
@@ -2036,9 +2079,9 @@
       </c>
       <c r="O6" s="53"/>
       <c r="P6" s="62"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="86" t="s">
+      <c r="Q6" s="79"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="94" t="s">
         <v>86</v>
       </c>
       <c r="T6" s="76"/>
@@ -2090,9 +2133,9 @@
       </c>
       <c r="O7" s="53"/>
       <c r="P7" s="62"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="87" t="s">
+      <c r="Q7" s="79"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="95" t="s">
         <v>87</v>
       </c>
       <c r="T7" s="76"/>
@@ -2144,9 +2187,9 @@
       </c>
       <c r="O8" s="53"/>
       <c r="P8" s="62"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="87" t="s">
+      <c r="Q8" s="79"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="95" t="s">
         <v>88</v>
       </c>
       <c r="T8" s="76"/>
@@ -2198,9 +2241,9 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="62"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="84" t="s">
+      <c r="Q9" s="79"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="92" t="s">
         <v>92</v>
       </c>
       <c r="T9" s="76"/>
@@ -2252,9 +2295,9 @@
       </c>
       <c r="O10" s="53"/>
       <c r="P10" s="62"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="88" t="s">
+      <c r="Q10" s="79"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="96" t="s">
         <v>99</v>
       </c>
       <c r="T10" s="76"/>
@@ -2306,12 +2349,12 @@
       </c>
       <c r="O11" s="53"/>
       <c r="P11" s="62"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="84" t="s">
+      <c r="Q11" s="79"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="79"/>
+      <c r="T11" s="78"/>
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
       <c r="W11" s="68"/>
@@ -2360,9 +2403,9 @@
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="62"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="88" t="s">
+      <c r="Q12" s="79"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="96" t="s">
         <v>100</v>
       </c>
       <c r="T12" s="76"/>
@@ -2415,11 +2458,11 @@
       <c r="O13" s="53"/>
       <c r="P13" s="63"/>
       <c r="Q13" s="54"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="78" t="s">
+      <c r="R13" s="98"/>
+      <c r="S13" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="T13" s="59"/>
+      <c r="T13" s="76"/>
       <c r="U13" s="59"/>
       <c r="V13" s="59"/>
       <c r="W13" s="70"/>
@@ -2469,11 +2512,11 @@
       <c r="O14" s="53"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="54"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="78" t="s">
+      <c r="R14" s="99"/>
+      <c r="S14" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="T14" s="59"/>
+      <c r="T14" s="76"/>
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -2522,9 +2565,11 @@
       <c r="O15" s="53"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="54"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15" s="76"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -2573,9 +2618,11 @@
       <c r="O16" s="53"/>
       <c r="P16" s="65"/>
       <c r="Q16" s="54"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="76">
+        <v>9424</v>
+      </c>
       <c r="U16" s="59"/>
       <c r="V16" s="59"/>
       <c r="W16" s="60"/>
@@ -2624,9 +2671,11 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="54"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="76">
+        <v>6958</v>
+      </c>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
       <c r="W17" s="68"/>
@@ -2675,9 +2724,11 @@
       <c r="O18" s="62"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="54"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="T18" s="76"/>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
       <c r="W18" s="68"/>
@@ -2726,9 +2777,11 @@
       <c r="O19" s="62"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="54"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="76">
+        <v>9257</v>
+      </c>
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
       <c r="W19" s="68"/>
@@ -2777,9 +2830,11 @@
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="54"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="T20" s="100"/>
       <c r="U20" s="71"/>
       <c r="V20" s="71"/>
       <c r="W20" s="72"/>
@@ -2795,13 +2850,13 @@
         <v>97</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E21" s="53" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>109</v>
@@ -2828,9 +2883,11 @@
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="T21" s="101"/>
       <c r="U21" s="73"/>
       <c r="V21" s="73"/>
       <c r="W21" s="72"/>
@@ -6360,6 +6417,7 @@
     <hyperlink ref="S11" r:id="rId9"/>
     <hyperlink ref="S13" r:id="rId10"/>
     <hyperlink ref="S14" r:id="rId11"/>
+    <hyperlink ref="S21" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6538,19 +6596,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6588,8 +6646,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6601,8 +6659,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6614,8 +6672,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6627,8 +6685,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6640,8 +6698,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6653,8 +6711,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6666,8 +6724,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6679,8 +6737,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6741,36 +6799,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7055,36 +7113,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7369,36 +7427,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7685,36 +7743,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
@@ -1287,6 +1287,39 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1313,39 +1346,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1720,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -1865,7 +1865,7 @@
       <c r="P2" s="62"/>
       <c r="Q2" s="79"/>
       <c r="R2" s="82"/>
-      <c r="S2" s="92" t="s">
+      <c r="S2" s="83" t="s">
         <v>75</v>
       </c>
       <c r="T2" s="80"/>
@@ -1919,7 +1919,7 @@
       <c r="P3" s="62"/>
       <c r="Q3" s="79"/>
       <c r="R3" s="82"/>
-      <c r="S3" s="92" t="s">
+      <c r="S3" s="83" t="s">
         <v>76</v>
       </c>
       <c r="T3" s="76"/>
@@ -1973,7 +1973,7 @@
       <c r="P4" s="62"/>
       <c r="Q4" s="79"/>
       <c r="R4" s="82"/>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="84" t="s">
         <v>84</v>
       </c>
       <c r="T4" s="76"/>
@@ -2027,7 +2027,7 @@
       <c r="P5" s="62"/>
       <c r="Q5" s="79"/>
       <c r="R5" s="82"/>
-      <c r="S5" s="93" t="s">
+      <c r="S5" s="84" t="s">
         <v>85</v>
       </c>
       <c r="T5" s="77"/>
@@ -2081,7 +2081,7 @@
       <c r="P6" s="62"/>
       <c r="Q6" s="79"/>
       <c r="R6" s="82"/>
-      <c r="S6" s="94" t="s">
+      <c r="S6" s="85" t="s">
         <v>86</v>
       </c>
       <c r="T6" s="76"/>
@@ -2135,7 +2135,7 @@
       <c r="P7" s="62"/>
       <c r="Q7" s="79"/>
       <c r="R7" s="82"/>
-      <c r="S7" s="95" t="s">
+      <c r="S7" s="86" t="s">
         <v>87</v>
       </c>
       <c r="T7" s="76"/>
@@ -2188,8 +2188,8 @@
       <c r="O8" s="53"/>
       <c r="P8" s="62"/>
       <c r="Q8" s="79"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="95" t="s">
+      <c r="R8" s="88"/>
+      <c r="S8" s="86" t="s">
         <v>88</v>
       </c>
       <c r="T8" s="76"/>
@@ -2242,8 +2242,8 @@
       <c r="O9" s="53"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="79"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="92" t="s">
+      <c r="R9" s="88"/>
+      <c r="S9" s="83" t="s">
         <v>92</v>
       </c>
       <c r="T9" s="76"/>
@@ -2296,8 +2296,8 @@
       <c r="O10" s="53"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="79"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="96" t="s">
+      <c r="R10" s="88"/>
+      <c r="S10" s="87" t="s">
         <v>99</v>
       </c>
       <c r="T10" s="76"/>
@@ -2350,8 +2350,8 @@
       <c r="O11" s="53"/>
       <c r="P11" s="62"/>
       <c r="Q11" s="79"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="92" t="s">
+      <c r="R11" s="88"/>
+      <c r="S11" s="83" t="s">
         <v>93</v>
       </c>
       <c r="T11" s="78"/>
@@ -2404,8 +2404,8 @@
       <c r="O12" s="53"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="79"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="96" t="s">
+      <c r="R12" s="88"/>
+      <c r="S12" s="87" t="s">
         <v>100</v>
       </c>
       <c r="T12" s="76"/>
@@ -2458,8 +2458,8 @@
       <c r="O13" s="53"/>
       <c r="P13" s="63"/>
       <c r="Q13" s="54"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="92" t="s">
+      <c r="R13" s="89"/>
+      <c r="S13" s="83" t="s">
         <v>95</v>
       </c>
       <c r="T13" s="76"/>
@@ -2512,8 +2512,8 @@
       <c r="O14" s="53"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="54"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="92" t="s">
+      <c r="R14" s="90"/>
+      <c r="S14" s="83" t="s">
         <v>101</v>
       </c>
       <c r="T14" s="76"/>
@@ -2565,8 +2565,8 @@
       <c r="O15" s="53"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="54"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="96" t="s">
+      <c r="R15" s="90"/>
+      <c r="S15" s="87" t="s">
         <v>124</v>
       </c>
       <c r="T15" s="76"/>
@@ -2618,7 +2618,7 @@
       <c r="O16" s="53"/>
       <c r="P16" s="65"/>
       <c r="Q16" s="54"/>
-      <c r="R16" s="99"/>
+      <c r="R16" s="90"/>
       <c r="S16" s="7"/>
       <c r="T16" s="76">
         <v>9424</v>
@@ -2671,7 +2671,7 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="54"/>
-      <c r="R17" s="99"/>
+      <c r="R17" s="90"/>
       <c r="S17" s="7"/>
       <c r="T17" s="76">
         <v>6958</v>
@@ -2724,8 +2724,8 @@
       <c r="O18" s="62"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="54"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="96" t="s">
+      <c r="R18" s="90"/>
+      <c r="S18" s="87" t="s">
         <v>125</v>
       </c>
       <c r="T18" s="76"/>
@@ -2777,7 +2777,7 @@
       <c r="O19" s="62"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="54"/>
-      <c r="R19" s="99"/>
+      <c r="R19" s="90"/>
       <c r="S19" s="7"/>
       <c r="T19" s="76">
         <v>9257</v>
@@ -2830,11 +2830,11 @@
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="54"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="102" t="s">
+      <c r="R20" s="90"/>
+      <c r="S20" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="T20" s="100"/>
+      <c r="T20" s="91"/>
       <c r="U20" s="71"/>
       <c r="V20" s="71"/>
       <c r="W20" s="72"/>
@@ -2883,11 +2883,11 @@
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="92" t="s">
+      <c r="R21" s="90"/>
+      <c r="S21" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="T21" s="101"/>
+      <c r="T21" s="92"/>
       <c r="U21" s="73"/>
       <c r="V21" s="73"/>
       <c r="W21" s="72"/>
@@ -6596,19 +6596,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6646,8 +6646,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6659,8 +6659,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6672,8 +6672,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6685,8 +6685,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6698,8 +6698,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6711,8 +6711,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6724,8 +6724,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6737,8 +6737,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6799,36 +6799,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7113,36 +7113,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7427,36 +7427,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7743,36 +7743,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9600" yWindow="-21160" windowWidth="38400" windowHeight="21160"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="138">
   <si>
     <t>No</t>
   </si>
@@ -572,6 +572,42 @@
   </si>
   <si>
     <t>DV-2727</t>
+  </si>
+  <si>
+    <t>TP项目参与规则改变，蘑菇分改为每周</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC首页-昨日实收/今日实收/待办事项-补录文案调整</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS一键反欺诈（全部房东跑一遍）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2771</t>
+  </si>
+  <si>
+    <t>哑铃</t>
+    <rPh sb="0" eb="1">
+      <t>ya'ling</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2655</t>
+  </si>
+  <si>
+    <t>DV-2702</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,6 +1381,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1721,7 +1760,7 @@
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2893,75 +2932,159 @@
       <c r="W21" s="72"/>
     </row>
     <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="A22" s="51">
+        <v>21</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="54">
+        <v>42797</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="54">
+        <v>42797</v>
+      </c>
       <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
+      <c r="L22" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O22" s="62"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="62"/>
-      <c r="S22" s="73"/>
+      <c r="S22" s="103" t="s">
+        <v>134</v>
+      </c>
       <c r="T22" s="73"/>
       <c r="U22" s="73"/>
       <c r="V22" s="74"/>
       <c r="W22" s="72"/>
     </row>
     <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="A23" s="51">
+        <v>22</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="54">
+        <v>42797</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="54">
+        <v>42797</v>
+      </c>
       <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
+      <c r="L23" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O23" s="62"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="62"/>
-      <c r="S23" s="73"/>
+      <c r="S23" s="103" t="s">
+        <v>137</v>
+      </c>
       <c r="T23" s="73"/>
       <c r="U23" s="73"/>
       <c r="V23" s="73"/>
       <c r="W23" s="72"/>
     </row>
     <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="A24" s="51">
+        <v>23</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="54">
+        <v>42797</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="54">
+        <v>42797</v>
+      </c>
       <c r="K24" s="53"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
+      <c r="L24" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="O24" s="62"/>
       <c r="P24" s="62"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="73"/>
+      <c r="S24" s="103" t="s">
+        <v>136</v>
+      </c>
       <c r="T24" s="73"/>
       <c r="U24" s="73"/>
       <c r="V24" s="73"/>
@@ -6395,7 +6518,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -6418,6 +6541,9 @@
     <hyperlink ref="S13" r:id="rId10"/>
     <hyperlink ref="S14" r:id="rId11"/>
     <hyperlink ref="S21" r:id="rId12"/>
+    <hyperlink ref="S22" r:id="rId13"/>
+    <hyperlink ref="S24" r:id="rId14"/>
+    <hyperlink ref="S23" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="127">
   <si>
     <t>No</t>
   </si>
@@ -490,37 +490,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>集中式付款方式编辑</t>
-    <rPh sb="0" eb="1">
-      <t>ji'zhong'shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fu'kuan'fang'shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bian'ji</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>partnerPC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnerPC,partnerApp</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息列表展示</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lie'b</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhan'shi</t>
-    </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -559,10 +529,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>DV-2657</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>DV-2495</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -574,40 +540,11 @@
     <t>DV-2727</t>
   </si>
   <si>
-    <t>TP项目参与规则改变，蘑菇分改为每周</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PC首页-昨日实收/今日实收/待办事项-补录文案调整</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>BS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>partner</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS一键反欺诈（全部房东跑一遍）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>DV-2771</t>
-  </si>
-  <si>
-    <t>哑铃</t>
-    <rPh sb="0" eb="1">
-      <t>ya'ling</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>DV-2655</t>
-  </si>
-  <si>
-    <t>DV-2702</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,9 +1233,6 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1356,6 +1290,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1381,9 +1318,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1757,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X166"/>
+  <dimension ref="A1:X162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1840,10 +1774,10 @@
       <c r="Q1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="80" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="50" t="s">
@@ -1869,7 +1803,7 @@
       <c r="C2" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="53" t="s">
@@ -1902,12 +1836,12 @@
       </c>
       <c r="O2" s="53"/>
       <c r="P2" s="62"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="83" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="80"/>
+      <c r="T2" s="79"/>
       <c r="U2" s="59"/>
       <c r="V2" s="65"/>
       <c r="W2" s="68"/>
@@ -1923,7 +1857,7 @@
       <c r="C3" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="53" t="s">
@@ -1956,12 +1890,12 @@
       </c>
       <c r="O3" s="53"/>
       <c r="P3" s="62"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="83" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="76"/>
+      <c r="T3" s="75"/>
       <c r="U3" s="59"/>
       <c r="V3" s="65"/>
       <c r="W3" s="68"/>
@@ -1977,7 +1911,7 @@
       <c r="C4" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="53" t="s">
@@ -2010,12 +1944,12 @@
       </c>
       <c r="O4" s="53"/>
       <c r="P4" s="62"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="84" t="s">
+      <c r="Q4" s="78"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="76"/>
+      <c r="T4" s="75"/>
       <c r="U4" s="59"/>
       <c r="V4" s="65"/>
       <c r="W4" s="68"/>
@@ -2031,7 +1965,7 @@
       <c r="C5" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="74" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="53" t="s">
@@ -2064,12 +1998,12 @@
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="62"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="84" t="s">
+      <c r="Q5" s="78"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="77"/>
+      <c r="T5" s="76"/>
       <c r="U5" s="69"/>
       <c r="V5" s="65"/>
       <c r="W5" s="68"/>
@@ -2085,7 +2019,7 @@
       <c r="C6" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="74" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="53" t="s">
@@ -2118,12 +2052,12 @@
       </c>
       <c r="O6" s="53"/>
       <c r="P6" s="62"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="85" t="s">
+      <c r="Q6" s="78"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="76"/>
+      <c r="T6" s="75"/>
       <c r="U6" s="59"/>
       <c r="V6" s="65"/>
       <c r="W6" s="68"/>
@@ -2172,12 +2106,12 @@
       </c>
       <c r="O7" s="53"/>
       <c r="P7" s="62"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="86" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="76"/>
+      <c r="T7" s="75"/>
       <c r="U7" s="59"/>
       <c r="V7" s="65"/>
       <c r="W7" s="68"/>
@@ -2226,12 +2160,12 @@
       </c>
       <c r="O8" s="53"/>
       <c r="P8" s="62"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="86" t="s">
+      <c r="Q8" s="78"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="76"/>
+      <c r="T8" s="75"/>
       <c r="U8" s="59"/>
       <c r="V8" s="65"/>
       <c r="W8" s="68"/>
@@ -2280,12 +2214,12 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="62"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="83" t="s">
+      <c r="Q9" s="78"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="76"/>
+      <c r="T9" s="75"/>
       <c r="U9" s="59"/>
       <c r="V9" s="65"/>
       <c r="W9" s="68"/>
@@ -2334,12 +2268,12 @@
       </c>
       <c r="O10" s="53"/>
       <c r="P10" s="62"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="87" t="s">
+      <c r="Q10" s="78"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="76"/>
+      <c r="T10" s="75"/>
       <c r="U10" s="59"/>
       <c r="V10" s="65"/>
       <c r="W10" s="68"/>
@@ -2388,12 +2322,12 @@
       </c>
       <c r="O11" s="53"/>
       <c r="P11" s="62"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="83" t="s">
+      <c r="Q11" s="78"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="78"/>
+      <c r="T11" s="77"/>
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
       <c r="W11" s="68"/>
@@ -2442,12 +2376,12 @@
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="62"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="87" t="s">
+      <c r="Q12" s="78"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="76"/>
+      <c r="T12" s="75"/>
       <c r="U12" s="59"/>
       <c r="V12" s="59"/>
       <c r="W12" s="68"/>
@@ -2497,11 +2431,11 @@
       <c r="O13" s="53"/>
       <c r="P13" s="63"/>
       <c r="Q13" s="54"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="83" t="s">
+      <c r="R13" s="88"/>
+      <c r="S13" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="T13" s="76"/>
+      <c r="T13" s="75"/>
       <c r="U13" s="59"/>
       <c r="V13" s="59"/>
       <c r="W13" s="70"/>
@@ -2551,11 +2485,11 @@
       <c r="O14" s="53"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="54"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="83" t="s">
+      <c r="R14" s="89"/>
+      <c r="S14" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="T14" s="76"/>
+      <c r="T14" s="75"/>
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -2604,11 +2538,11 @@
       <c r="O15" s="53"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="54"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="T15" s="76"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="T15" s="75"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -2646,7 +2580,7 @@
       </c>
       <c r="K16" s="64"/>
       <c r="L16" s="62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M16" s="53" t="s">
         <v>71</v>
@@ -2657,9 +2591,9 @@
       <c r="O16" s="53"/>
       <c r="P16" s="65"/>
       <c r="Q16" s="54"/>
-      <c r="R16" s="90"/>
+      <c r="R16" s="89"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="76">
+      <c r="T16" s="75">
         <v>9424</v>
       </c>
       <c r="U16" s="59"/>
@@ -2699,7 +2633,7 @@
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="53" t="s">
         <v>71</v>
@@ -2710,9 +2644,9 @@
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="54"/>
-      <c r="R17" s="90"/>
+      <c r="R17" s="89"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="76">
+      <c r="T17" s="75">
         <v>6958</v>
       </c>
       <c r="U17" s="59"/>
@@ -2730,13 +2664,13 @@
         <v>97</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" s="53" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G18" s="53" t="s">
         <v>109</v>
@@ -2752,7 +2686,7 @@
       </c>
       <c r="K18" s="53"/>
       <c r="L18" s="62" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="M18" s="53" t="s">
         <v>71</v>
@@ -2763,14 +2697,14 @@
       <c r="O18" s="62"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="54"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="T18" s="76"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="68"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="90"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="72"/>
     </row>
     <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="51">
@@ -2783,29 +2717,29 @@
         <v>97</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G19" s="53" t="s">
         <v>109</v>
       </c>
       <c r="H19" s="54">
-        <v>42795</v>
+        <v>42797</v>
       </c>
       <c r="I19" s="53" t="s">
         <v>109</v>
       </c>
       <c r="J19" s="54">
-        <v>42795</v>
+        <v>42797</v>
       </c>
       <c r="K19" s="53"/>
       <c r="L19" s="62" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M19" s="53" t="s">
         <v>71</v>
@@ -2816,14 +2750,14 @@
       <c r="O19" s="62"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="54"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="76">
-        <v>9257</v>
-      </c>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="68"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" s="91"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="72"/>
     </row>
     <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="51">
@@ -2836,29 +2770,29 @@
         <v>97</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G20" s="53" t="s">
         <v>109</v>
       </c>
       <c r="H20" s="54">
-        <v>42795</v>
+        <v>42797</v>
       </c>
       <c r="I20" s="53" t="s">
         <v>109</v>
       </c>
       <c r="J20" s="54">
-        <v>42795</v>
+        <v>42797</v>
       </c>
       <c r="K20" s="53"/>
       <c r="L20" s="62" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="M20" s="53" t="s">
         <v>71</v>
@@ -2869,226 +2803,114 @@
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="54"/>
-      <c r="R20" s="90"/>
+      <c r="R20" s="62"/>
       <c r="S20" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="T20" s="91"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
       <c r="W20" s="72"/>
     </row>
     <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="51">
-        <v>20</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="54">
-        <v>42797</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="54">
-        <v>42797</v>
-      </c>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="53"/>
-      <c r="L21" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="M21" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="N21" s="53" t="s">
-        <v>72</v>
-      </c>
+      <c r="L21" s="62"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="T21" s="92"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="72"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="62"/>
     </row>
     <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="51">
-        <v>21</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="54">
-        <v>42797</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" s="54">
-        <v>42797</v>
-      </c>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="53"/>
-      <c r="L22" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="M22" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="N22" s="53" t="s">
-        <v>72</v>
-      </c>
+      <c r="L22" s="62"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="62"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="62"/>
-      <c r="S22" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="72"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="68"/>
     </row>
     <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="51">
-        <v>22</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="54">
-        <v>42797</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" s="54">
-        <v>42797</v>
-      </c>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="53"/>
-      <c r="L23" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="N23" s="53" t="s">
-        <v>72</v>
-      </c>
+      <c r="L23" s="62"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="62"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="62"/>
-      <c r="S23" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="72"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="68"/>
     </row>
     <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="51">
-        <v>23</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="54">
-        <v>42797</v>
-      </c>
-      <c r="I24" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" s="54">
-        <v>42797</v>
-      </c>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="53"/>
-      <c r="L24" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="N24" s="53" t="s">
-        <v>72</v>
-      </c>
+      <c r="L24" s="62"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="62"/>
       <c r="P24" s="62"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="72"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="68"/>
     </row>
     <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
@@ -3101,7 +2923,7 @@
       <c r="H25" s="54"/>
       <c r="I25" s="53"/>
       <c r="J25" s="54"/>
-      <c r="K25" s="53"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="62"/>
       <c r="M25" s="53"/>
       <c r="N25" s="53"/>
@@ -3109,19 +2931,19 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="54"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="62"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="72"/>
     </row>
     <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
-      <c r="D26" s="56"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="53"/>
-      <c r="F26" s="57"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="53"/>
       <c r="H26" s="54"/>
       <c r="I26" s="53"/>
@@ -3130,7 +2952,7 @@
       <c r="L26" s="62"/>
       <c r="M26" s="53"/>
       <c r="N26" s="53"/>
-      <c r="O26" s="62"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="54"/>
       <c r="R26" s="62"/>
@@ -3138,15 +2960,15 @@
       <c r="T26" s="59"/>
       <c r="U26" s="59"/>
       <c r="V26" s="59"/>
-      <c r="W26" s="68"/>
+      <c r="W26" s="66"/>
     </row>
     <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="53"/>
-      <c r="F27" s="57"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="53"/>
       <c r="H27" s="54"/>
       <c r="I27" s="53"/>
@@ -3155,7 +2977,7 @@
       <c r="L27" s="62"/>
       <c r="M27" s="53"/>
       <c r="N27" s="53"/>
-      <c r="O27" s="62"/>
+      <c r="O27" s="53"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="62"/>
@@ -3169,9 +2991,9 @@
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="53"/>
-      <c r="F28" s="57"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="53"/>
       <c r="H28" s="54"/>
       <c r="I28" s="53"/>
@@ -3180,7 +3002,7 @@
       <c r="L28" s="62"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53"/>
-      <c r="O28" s="62"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="54"/>
       <c r="R28" s="62"/>
@@ -3194,26 +3016,26 @@
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="53"/>
-      <c r="F29" s="57"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="53"/>
       <c r="H29" s="54"/>
       <c r="I29" s="53"/>
       <c r="J29" s="54"/>
-      <c r="K29" s="57"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="62"/>
       <c r="M29" s="53"/>
       <c r="N29" s="53"/>
-      <c r="O29" s="62"/>
+      <c r="O29" s="53"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="54"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="72"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="68"/>
     </row>
     <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
@@ -3238,7 +3060,7 @@
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
-      <c r="W30" s="66"/>
+      <c r="W30" s="68"/>
     </row>
     <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
@@ -3394,66 +3216,66 @@
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
       <c r="H37" s="54"/>
-      <c r="I37" s="53"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="53"/>
       <c r="L37" s="62"/>
-      <c r="M37" s="53"/>
+      <c r="M37" s="62"/>
       <c r="N37" s="53"/>
       <c r="O37" s="53"/>
       <c r="P37" s="62"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="62"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
       <c r="W37" s="68"/>
     </row>
     <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="53"/>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
       <c r="H38" s="54"/>
-      <c r="I38" s="53"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="53"/>
       <c r="L38" s="62"/>
-      <c r="M38" s="53"/>
+      <c r="M38" s="62"/>
       <c r="N38" s="53"/>
       <c r="O38" s="53"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="62"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
       <c r="W38" s="68"/>
     </row>
     <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="53"/>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
       <c r="H39" s="54"/>
-      <c r="I39" s="53"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="54"/>
-      <c r="K39" s="53"/>
+      <c r="K39" s="64"/>
       <c r="L39" s="62"/>
-      <c r="M39" s="53"/>
+      <c r="M39" s="62"/>
       <c r="N39" s="53"/>
       <c r="O39" s="53"/>
       <c r="P39" s="62"/>
@@ -3463,22 +3285,22 @@
       <c r="T39" s="59"/>
       <c r="U39" s="59"/>
       <c r="V39" s="59"/>
-      <c r="W39" s="68"/>
+      <c r="W39" s="60"/>
     </row>
     <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
       <c r="H40" s="54"/>
-      <c r="I40" s="53"/>
+      <c r="I40" s="54"/>
       <c r="J40" s="54"/>
-      <c r="K40" s="53"/>
+      <c r="K40" s="64"/>
       <c r="L40" s="62"/>
-      <c r="M40" s="53"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
       <c r="P40" s="62"/>
@@ -3488,20 +3310,20 @@
       <c r="T40" s="59"/>
       <c r="U40" s="59"/>
       <c r="V40" s="59"/>
-      <c r="W40" s="68"/>
+      <c r="W40" s="60"/>
     </row>
     <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
-      <c r="D41" s="55"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
       <c r="J41" s="54"/>
-      <c r="K41" s="53"/>
+      <c r="K41" s="64"/>
       <c r="L41" s="62"/>
       <c r="M41" s="62"/>
       <c r="N41" s="53"/>
@@ -3509,24 +3331,24 @@
       <c r="P41" s="62"/>
       <c r="Q41" s="54"/>
       <c r="R41" s="62"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="68"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="60"/>
     </row>
     <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
-      <c r="D42" s="55"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
       <c r="H42" s="54"/>
       <c r="I42" s="54"/>
       <c r="J42" s="54"/>
-      <c r="K42" s="53"/>
+      <c r="K42" s="64"/>
       <c r="L42" s="62"/>
       <c r="M42" s="62"/>
       <c r="N42" s="53"/>
@@ -3534,11 +3356,11 @@
       <c r="P42" s="62"/>
       <c r="Q42" s="54"/>
       <c r="R42" s="62"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="68"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="60"/>
     </row>
     <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
@@ -3616,24 +3438,24 @@
       <c r="W45" s="60"/>
     </row>
     <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="53"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="61"/>
       <c r="K46" s="64"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
       <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="62"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="60"/>
       <c r="S46" s="59"/>
       <c r="T46" s="59"/>
       <c r="U46" s="59"/>
@@ -3641,24 +3463,24 @@
       <c r="W46" s="60"/>
     </row>
     <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="53"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="61"/>
       <c r="K47" s="64"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
       <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="62"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="60"/>
       <c r="S47" s="59"/>
       <c r="T47" s="59"/>
       <c r="U47" s="59"/>
@@ -3666,24 +3488,24 @@
       <c r="W47" s="60"/>
     </row>
     <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="53"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="59"/>
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="61"/>
       <c r="K48" s="64"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
       <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="62"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="60"/>
       <c r="S48" s="59"/>
       <c r="T48" s="59"/>
       <c r="U48" s="59"/>
@@ -3691,24 +3513,24 @@
       <c r="W48" s="60"/>
     </row>
     <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="53"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="53"/>
       <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="61"/>
       <c r="K49" s="64"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="62"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="60"/>
       <c r="S49" s="59"/>
       <c r="T49" s="59"/>
       <c r="U49" s="59"/>
@@ -4022,7 +3844,7 @@
       <c r="D62" s="60"/>
       <c r="E62" s="59"/>
       <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
+      <c r="G62" s="59"/>
       <c r="H62" s="61"/>
       <c r="I62" s="59"/>
       <c r="J62" s="61"/>
@@ -4047,7 +3869,7 @@
       <c r="D63" s="60"/>
       <c r="E63" s="59"/>
       <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
+      <c r="G63" s="59"/>
       <c r="H63" s="61"/>
       <c r="I63" s="59"/>
       <c r="J63" s="61"/>
@@ -4072,7 +3894,7 @@
       <c r="D64" s="60"/>
       <c r="E64" s="59"/>
       <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
+      <c r="G64" s="59"/>
       <c r="H64" s="61"/>
       <c r="I64" s="59"/>
       <c r="J64" s="61"/>
@@ -4097,7 +3919,7 @@
       <c r="D65" s="60"/>
       <c r="E65" s="59"/>
       <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="61"/>
       <c r="I65" s="59"/>
       <c r="J65" s="61"/>
@@ -4171,7 +3993,7 @@
       <c r="C68" s="59"/>
       <c r="D68" s="60"/>
       <c r="E68" s="59"/>
-      <c r="F68" s="53"/>
+      <c r="F68" s="59"/>
       <c r="G68" s="59"/>
       <c r="H68" s="61"/>
       <c r="I68" s="59"/>
@@ -4196,7 +4018,7 @@
       <c r="C69" s="59"/>
       <c r="D69" s="60"/>
       <c r="E69" s="59"/>
-      <c r="F69" s="53"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="59"/>
       <c r="H69" s="61"/>
       <c r="I69" s="59"/>
@@ -4221,7 +4043,7 @@
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
       <c r="E70" s="59"/>
-      <c r="F70" s="53"/>
+      <c r="F70" s="59"/>
       <c r="G70" s="59"/>
       <c r="H70" s="61"/>
       <c r="I70" s="59"/>
@@ -4246,7 +4068,7 @@
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
       <c r="E71" s="59"/>
-      <c r="F71" s="53"/>
+      <c r="F71" s="59"/>
       <c r="G71" s="59"/>
       <c r="H71" s="61"/>
       <c r="I71" s="59"/>
@@ -4265,7 +4087,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="60"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
@@ -4279,7 +4101,7 @@
       <c r="K72" s="64"/>
       <c r="L72" s="59"/>
       <c r="M72" s="59"/>
-      <c r="N72" s="53"/>
+      <c r="N72" s="59"/>
       <c r="O72" s="59"/>
       <c r="P72" s="59"/>
       <c r="Q72" s="61"/>
@@ -4290,7 +4112,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="60"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -4304,7 +4126,7 @@
       <c r="K73" s="64"/>
       <c r="L73" s="59"/>
       <c r="M73" s="59"/>
-      <c r="N73" s="53"/>
+      <c r="N73" s="59"/>
       <c r="O73" s="59"/>
       <c r="P73" s="59"/>
       <c r="Q73" s="61"/>
@@ -4315,7 +4137,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="60"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -4329,7 +4151,7 @@
       <c r="K74" s="64"/>
       <c r="L74" s="59"/>
       <c r="M74" s="59"/>
-      <c r="N74" s="53"/>
+      <c r="N74" s="59"/>
       <c r="O74" s="59"/>
       <c r="P74" s="59"/>
       <c r="Q74" s="61"/>
@@ -4340,7 +4162,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="60"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -4354,7 +4176,7 @@
       <c r="K75" s="64"/>
       <c r="L75" s="59"/>
       <c r="M75" s="59"/>
-      <c r="N75" s="53"/>
+      <c r="N75" s="59"/>
       <c r="O75" s="59"/>
       <c r="P75" s="59"/>
       <c r="Q75" s="61"/>
@@ -5684,10 +5506,6 @@
       <c r="P128" s="59"/>
       <c r="Q128" s="61"/>
       <c r="R128" s="60"/>
-      <c r="S128" s="59"/>
-      <c r="T128" s="59"/>
-      <c r="U128" s="59"/>
-      <c r="V128" s="59"/>
       <c r="W128" s="60"/>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.15">
@@ -5709,10 +5527,6 @@
       <c r="P129" s="59"/>
       <c r="Q129" s="61"/>
       <c r="R129" s="60"/>
-      <c r="S129" s="59"/>
-      <c r="T129" s="59"/>
-      <c r="U129" s="59"/>
-      <c r="V129" s="59"/>
       <c r="W129" s="60"/>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.15">
@@ -5734,10 +5548,6 @@
       <c r="P130" s="59"/>
       <c r="Q130" s="61"/>
       <c r="R130" s="60"/>
-      <c r="S130" s="59"/>
-      <c r="T130" s="59"/>
-      <c r="U130" s="59"/>
-      <c r="V130" s="59"/>
       <c r="W130" s="60"/>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.15">
@@ -5759,10 +5569,6 @@
       <c r="P131" s="59"/>
       <c r="Q131" s="61"/>
       <c r="R131" s="60"/>
-      <c r="S131" s="59"/>
-      <c r="T131" s="59"/>
-      <c r="U131" s="59"/>
-      <c r="V131" s="59"/>
       <c r="W131" s="60"/>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.15">
@@ -6416,94 +6222,10 @@
       <c r="R162" s="60"/>
       <c r="W162" s="60"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A163" s="59"/>
-      <c r="B163" s="59"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="60"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="59"/>
-      <c r="G163" s="59"/>
-      <c r="H163" s="61"/>
-      <c r="I163" s="59"/>
-      <c r="J163" s="61"/>
-      <c r="K163" s="64"/>
-      <c r="L163" s="59"/>
-      <c r="M163" s="59"/>
-      <c r="N163" s="59"/>
-      <c r="O163" s="59"/>
-      <c r="P163" s="59"/>
-      <c r="Q163" s="61"/>
-      <c r="R163" s="60"/>
-      <c r="W163" s="60"/>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A164" s="59"/>
-      <c r="B164" s="59"/>
-      <c r="C164" s="59"/>
-      <c r="D164" s="60"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="59"/>
-      <c r="G164" s="59"/>
-      <c r="H164" s="61"/>
-      <c r="I164" s="59"/>
-      <c r="J164" s="61"/>
-      <c r="K164" s="64"/>
-      <c r="L164" s="59"/>
-      <c r="M164" s="59"/>
-      <c r="N164" s="59"/>
-      <c r="O164" s="59"/>
-      <c r="P164" s="59"/>
-      <c r="Q164" s="61"/>
-      <c r="R164" s="60"/>
-      <c r="W164" s="60"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A165" s="59"/>
-      <c r="B165" s="59"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="60"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="59"/>
-      <c r="H165" s="61"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="61"/>
-      <c r="K165" s="64"/>
-      <c r="L165" s="59"/>
-      <c r="M165" s="59"/>
-      <c r="N165" s="59"/>
-      <c r="O165" s="59"/>
-      <c r="P165" s="59"/>
-      <c r="Q165" s="61"/>
-      <c r="R165" s="60"/>
-      <c r="W165" s="60"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A166" s="59"/>
-      <c r="B166" s="59"/>
-      <c r="C166" s="59"/>
-      <c r="D166" s="60"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="59"/>
-      <c r="H166" s="61"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="61"/>
-      <c r="K166" s="64"/>
-      <c r="L166" s="59"/>
-      <c r="M166" s="59"/>
-      <c r="N166" s="59"/>
-      <c r="O166" s="59"/>
-      <c r="P166" s="59"/>
-      <c r="Q166" s="61"/>
-      <c r="R166" s="60"/>
-      <c r="W166" s="60"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N71">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -6540,10 +6262,8 @@
     <hyperlink ref="S11" r:id="rId9"/>
     <hyperlink ref="S13" r:id="rId10"/>
     <hyperlink ref="S14" r:id="rId11"/>
-    <hyperlink ref="S21" r:id="rId12"/>
-    <hyperlink ref="S22" r:id="rId13"/>
-    <hyperlink ref="S24" r:id="rId14"/>
-    <hyperlink ref="S23" r:id="rId15"/>
+    <hyperlink ref="S19" r:id="rId12"/>
+    <hyperlink ref="S20" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="130">
   <si>
     <t>No</t>
   </si>
@@ -545,6 +545,27 @@
   </si>
   <si>
     <t>DV-2655</t>
+  </si>
+  <si>
+    <t>李萌</t>
+    <rPh sb="0" eb="1">
+      <t>li'meng</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guo</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -767,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -911,19 +932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -960,19 +968,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1010,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,9 +1195,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1236,22 +1228,19 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="6" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,19 +1261,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1694,7 +1674,7 @@
   <dimension ref="A1:X162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1774,10 +1754,10 @@
       <c r="Q1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="R1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="80" t="s">
+      <c r="S1" s="78" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="50" t="s">
@@ -1803,7 +1783,7 @@
       <c r="C2" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="53" t="s">
@@ -1834,18 +1814,26 @@
       <c r="N2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="82" t="s">
+      <c r="O2" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R2" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="79"/>
+      <c r="T2" s="77"/>
       <c r="U2" s="59"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="67"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="66"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
@@ -1857,7 +1845,7 @@
       <c r="C3" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="73" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="53" t="s">
@@ -1888,18 +1876,26 @@
       <c r="N3" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82" t="s">
+      <c r="O3" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R3" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S3" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="75"/>
+      <c r="T3" s="74"/>
       <c r="U3" s="59"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="67"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="66"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="51">
@@ -1911,7 +1907,7 @@
       <c r="C4" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>78</v>
       </c>
       <c r="E4" s="53" t="s">
@@ -1942,18 +1938,26 @@
       <c r="N4" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="83" t="s">
+      <c r="O4" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R4" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="75"/>
+      <c r="T4" s="74"/>
       <c r="U4" s="59"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="67"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="51">
@@ -1965,7 +1969,7 @@
       <c r="C5" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="53" t="s">
@@ -1996,18 +2000,26 @@
       <c r="N5" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="83" t="s">
+      <c r="O5" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R5" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S5" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="76"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="67"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="66"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A6" s="51">
@@ -2019,7 +2031,7 @@
       <c r="C6" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="53" t="s">
@@ -2050,18 +2062,26 @@
       <c r="N6" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="84" t="s">
+      <c r="O6" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R6" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S6" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="75"/>
+      <c r="T6" s="74"/>
       <c r="U6" s="59"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="67"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="66"/>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="51">
@@ -2104,18 +2124,26 @@
       <c r="N7" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="85" t="s">
+      <c r="O7" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R7" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="75"/>
+      <c r="T7" s="74"/>
       <c r="U7" s="59"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="67"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="66"/>
     </row>
     <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="51">
@@ -2158,18 +2186,26 @@
       <c r="N8" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="85" t="s">
+      <c r="O8" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R8" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S8" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="75"/>
+      <c r="T8" s="74"/>
       <c r="U8" s="59"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="67"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="66"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="51">
@@ -2212,18 +2248,26 @@
       <c r="N9" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="82" t="s">
+      <c r="O9" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S9" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="75"/>
+      <c r="T9" s="74"/>
       <c r="U9" s="59"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="67"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="66"/>
     </row>
     <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="51">
@@ -2266,18 +2310,26 @@
       <c r="N10" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="86" t="s">
+      <c r="O10" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R10" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S10" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="75"/>
+      <c r="T10" s="74"/>
       <c r="U10" s="59"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="67"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="66"/>
     </row>
     <row r="11" spans="1:24" s="46" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="51">
@@ -2320,18 +2372,26 @@
       <c r="N11" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="82" t="s">
+      <c r="O11" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R11" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S11" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="77"/>
+      <c r="T11" s="76"/>
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="66"/>
     </row>
     <row r="12" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="51">
@@ -2374,18 +2434,26 @@
       <c r="N12" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="53"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="86" t="s">
+      <c r="O12" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q12" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R12" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S12" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="75"/>
+      <c r="T12" s="74"/>
       <c r="U12" s="59"/>
       <c r="V12" s="59"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="66"/>
     </row>
     <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="51">
@@ -2428,18 +2496,26 @@
       <c r="N13" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="82" t="s">
+      <c r="O13" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R13" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S13" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="T13" s="75"/>
+      <c r="T13" s="74"/>
       <c r="U13" s="59"/>
       <c r="V13" s="59"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="67"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="66"/>
     </row>
     <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="51">
@@ -2472,7 +2548,7 @@
       <c r="J14" s="54">
         <v>42788</v>
       </c>
-      <c r="K14" s="64"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="62" t="s">
         <v>96</v>
       </c>
@@ -2482,14 +2558,22 @@
       <c r="N14" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="82" t="s">
+      <c r="O14" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q14" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R14" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="T14" s="75"/>
+      <c r="T14" s="74"/>
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -2525,7 +2609,7 @@
       <c r="J15" s="54">
         <v>42788</v>
       </c>
-      <c r="K15" s="64"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="62" t="s">
         <v>83</v>
       </c>
@@ -2535,14 +2619,22 @@
       <c r="N15" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O15" s="53"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="86" t="s">
+      <c r="O15" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R15" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S15" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="T15" s="75"/>
+      <c r="T15" s="74"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -2578,7 +2670,7 @@
       <c r="J16" s="54">
         <v>42788</v>
       </c>
-      <c r="K16" s="64"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="62" t="s">
         <v>119</v>
       </c>
@@ -2588,12 +2680,20 @@
       <c r="N16" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="89"/>
+      <c r="O16" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q16" s="54">
+        <v>42788</v>
+      </c>
+      <c r="R16" s="79" t="s">
+        <v>129</v>
+      </c>
       <c r="S16" s="7"/>
-      <c r="T16" s="75">
+      <c r="T16" s="74">
         <v>9424</v>
       </c>
       <c r="U16" s="59"/>
@@ -2641,17 +2741,25 @@
       <c r="N17" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="89"/>
+      <c r="O17" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="54">
+        <v>42795</v>
+      </c>
+      <c r="R17" s="79" t="s">
+        <v>129</v>
+      </c>
       <c r="S17" s="7"/>
-      <c r="T17" s="75">
+      <c r="T17" s="74">
         <v>6958</v>
       </c>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
-      <c r="W17" s="68"/>
+      <c r="W17" s="67"/>
     </row>
     <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="51">
@@ -2694,17 +2802,25 @@
       <c r="N18" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="92" t="s">
+      <c r="O18" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="54">
+        <v>42795</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S18" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="T18" s="90"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="72"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="71"/>
     </row>
     <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="51">
@@ -2747,17 +2863,25 @@
       <c r="N19" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="82" t="s">
+      <c r="O19" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="54">
+        <v>42797</v>
+      </c>
+      <c r="R19" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S19" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="91"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="72"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="71"/>
     </row>
     <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="51">
@@ -2800,17 +2924,25 @@
       <c r="N20" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="93" t="s">
+      <c r="O20" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="54">
+        <v>42797</v>
+      </c>
+      <c r="R20" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S20" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="71"/>
     </row>
     <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
@@ -2831,10 +2963,10 @@
       <c r="P21" s="62"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="62"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
       <c r="W21" s="62"/>
     </row>
     <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2860,7 +2992,7 @@
       <c r="T22" s="59"/>
       <c r="U22" s="59"/>
       <c r="V22" s="59"/>
-      <c r="W22" s="68"/>
+      <c r="W22" s="67"/>
     </row>
     <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
@@ -2885,7 +3017,7 @@
       <c r="T23" s="59"/>
       <c r="U23" s="59"/>
       <c r="V23" s="59"/>
-      <c r="W23" s="68"/>
+      <c r="W23" s="67"/>
     </row>
     <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
@@ -2910,7 +3042,7 @@
       <c r="T24" s="59"/>
       <c r="U24" s="59"/>
       <c r="V24" s="59"/>
-      <c r="W24" s="68"/>
+      <c r="W24" s="67"/>
     </row>
     <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
@@ -2931,11 +3063,11 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="54"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="71"/>
     </row>
     <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
@@ -2960,7 +3092,7 @@
       <c r="T26" s="59"/>
       <c r="U26" s="59"/>
       <c r="V26" s="59"/>
-      <c r="W26" s="66"/>
+      <c r="W26" s="65"/>
     </row>
     <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
@@ -2985,7 +3117,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="68"/>
+      <c r="W27" s="67"/>
     </row>
     <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
@@ -3010,7 +3142,7 @@
       <c r="T28" s="59"/>
       <c r="U28" s="59"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="68"/>
+      <c r="W28" s="67"/>
     </row>
     <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
@@ -3035,7 +3167,7 @@
       <c r="T29" s="59"/>
       <c r="U29" s="59"/>
       <c r="V29" s="59"/>
-      <c r="W29" s="68"/>
+      <c r="W29" s="67"/>
     </row>
     <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
@@ -3060,7 +3192,7 @@
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
-      <c r="W30" s="68"/>
+      <c r="W30" s="67"/>
     </row>
     <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
@@ -3085,7 +3217,7 @@
       <c r="T31" s="59"/>
       <c r="U31" s="59"/>
       <c r="V31" s="59"/>
-      <c r="W31" s="68"/>
+      <c r="W31" s="67"/>
     </row>
     <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
@@ -3110,7 +3242,7 @@
       <c r="T32" s="59"/>
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
-      <c r="W32" s="68"/>
+      <c r="W32" s="67"/>
     </row>
     <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
@@ -3135,7 +3267,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
-      <c r="W33" s="68"/>
+      <c r="W33" s="67"/>
     </row>
     <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
@@ -3160,7 +3292,7 @@
       <c r="T34" s="59"/>
       <c r="U34" s="59"/>
       <c r="V34" s="59"/>
-      <c r="W34" s="68"/>
+      <c r="W34" s="67"/>
     </row>
     <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
@@ -3185,7 +3317,7 @@
       <c r="T35" s="59"/>
       <c r="U35" s="59"/>
       <c r="V35" s="59"/>
-      <c r="W35" s="68"/>
+      <c r="W35" s="67"/>
     </row>
     <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
@@ -3210,7 +3342,7 @@
       <c r="T36" s="59"/>
       <c r="U36" s="59"/>
       <c r="V36" s="59"/>
-      <c r="W36" s="68"/>
+      <c r="W36" s="67"/>
     </row>
     <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
@@ -3231,11 +3363,11 @@
       <c r="P37" s="62"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="62"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="67"/>
     </row>
     <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
@@ -3256,11 +3388,11 @@
       <c r="P38" s="62"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="62"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="67"/>
     </row>
     <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
@@ -3273,7 +3405,7 @@
       <c r="H39" s="54"/>
       <c r="I39" s="54"/>
       <c r="J39" s="54"/>
-      <c r="K39" s="64"/>
+      <c r="K39" s="63"/>
       <c r="L39" s="62"/>
       <c r="M39" s="62"/>
       <c r="N39" s="53"/>
@@ -3298,7 +3430,7 @@
       <c r="H40" s="54"/>
       <c r="I40" s="54"/>
       <c r="J40" s="54"/>
-      <c r="K40" s="64"/>
+      <c r="K40" s="63"/>
       <c r="L40" s="62"/>
       <c r="M40" s="62"/>
       <c r="N40" s="53"/>
@@ -3323,7 +3455,7 @@
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
       <c r="J41" s="54"/>
-      <c r="K41" s="64"/>
+      <c r="K41" s="63"/>
       <c r="L41" s="62"/>
       <c r="M41" s="62"/>
       <c r="N41" s="53"/>
@@ -3348,7 +3480,7 @@
       <c r="H42" s="54"/>
       <c r="I42" s="54"/>
       <c r="J42" s="54"/>
-      <c r="K42" s="64"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="62"/>
       <c r="M42" s="62"/>
       <c r="N42" s="53"/>
@@ -3373,7 +3505,7 @@
       <c r="H43" s="54"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
-      <c r="K43" s="64"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="62"/>
       <c r="M43" s="62"/>
       <c r="N43" s="53"/>
@@ -3398,7 +3530,7 @@
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
-      <c r="K44" s="64"/>
+      <c r="K44" s="63"/>
       <c r="L44" s="62"/>
       <c r="M44" s="62"/>
       <c r="N44" s="53"/>
@@ -3423,7 +3555,7 @@
       <c r="H45" s="54"/>
       <c r="I45" s="54"/>
       <c r="J45" s="54"/>
-      <c r="K45" s="64"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="62"/>
       <c r="M45" s="62"/>
       <c r="N45" s="53"/>
@@ -3448,7 +3580,7 @@
       <c r="H46" s="61"/>
       <c r="I46" s="59"/>
       <c r="J46" s="61"/>
-      <c r="K46" s="64"/>
+      <c r="K46" s="63"/>
       <c r="L46" s="59"/>
       <c r="M46" s="59"/>
       <c r="N46" s="53"/>
@@ -3473,7 +3605,7 @@
       <c r="H47" s="61"/>
       <c r="I47" s="59"/>
       <c r="J47" s="61"/>
-      <c r="K47" s="64"/>
+      <c r="K47" s="63"/>
       <c r="L47" s="59"/>
       <c r="M47" s="59"/>
       <c r="N47" s="53"/>
@@ -3498,7 +3630,7 @@
       <c r="H48" s="61"/>
       <c r="I48" s="59"/>
       <c r="J48" s="61"/>
-      <c r="K48" s="64"/>
+      <c r="K48" s="63"/>
       <c r="L48" s="59"/>
       <c r="M48" s="59"/>
       <c r="N48" s="53"/>
@@ -3523,7 +3655,7 @@
       <c r="H49" s="61"/>
       <c r="I49" s="59"/>
       <c r="J49" s="61"/>
-      <c r="K49" s="64"/>
+      <c r="K49" s="63"/>
       <c r="L49" s="59"/>
       <c r="M49" s="59"/>
       <c r="N49" s="53"/>
@@ -3548,7 +3680,7 @@
       <c r="H50" s="61"/>
       <c r="I50" s="59"/>
       <c r="J50" s="61"/>
-      <c r="K50" s="64"/>
+      <c r="K50" s="63"/>
       <c r="L50" s="59"/>
       <c r="M50" s="59"/>
       <c r="N50" s="53"/>
@@ -3573,7 +3705,7 @@
       <c r="H51" s="61"/>
       <c r="I51" s="59"/>
       <c r="J51" s="61"/>
-      <c r="K51" s="64"/>
+      <c r="K51" s="63"/>
       <c r="L51" s="59"/>
       <c r="M51" s="59"/>
       <c r="N51" s="53"/>
@@ -3598,7 +3730,7 @@
       <c r="H52" s="61"/>
       <c r="I52" s="59"/>
       <c r="J52" s="61"/>
-      <c r="K52" s="64"/>
+      <c r="K52" s="63"/>
       <c r="L52" s="59"/>
       <c r="M52" s="59"/>
       <c r="N52" s="53"/>
@@ -3623,7 +3755,7 @@
       <c r="H53" s="61"/>
       <c r="I53" s="59"/>
       <c r="J53" s="61"/>
-      <c r="K53" s="64"/>
+      <c r="K53" s="63"/>
       <c r="L53" s="59"/>
       <c r="M53" s="59"/>
       <c r="N53" s="53"/>
@@ -3648,7 +3780,7 @@
       <c r="H54" s="61"/>
       <c r="I54" s="59"/>
       <c r="J54" s="61"/>
-      <c r="K54" s="64"/>
+      <c r="K54" s="63"/>
       <c r="L54" s="59"/>
       <c r="M54" s="59"/>
       <c r="N54" s="53"/>
@@ -3673,7 +3805,7 @@
       <c r="H55" s="61"/>
       <c r="I55" s="59"/>
       <c r="J55" s="61"/>
-      <c r="K55" s="64"/>
+      <c r="K55" s="63"/>
       <c r="L55" s="59"/>
       <c r="M55" s="59"/>
       <c r="N55" s="53"/>
@@ -3698,7 +3830,7 @@
       <c r="H56" s="61"/>
       <c r="I56" s="59"/>
       <c r="J56" s="61"/>
-      <c r="K56" s="64"/>
+      <c r="K56" s="63"/>
       <c r="L56" s="59"/>
       <c r="M56" s="59"/>
       <c r="N56" s="53"/>
@@ -3723,7 +3855,7 @@
       <c r="H57" s="61"/>
       <c r="I57" s="59"/>
       <c r="J57" s="61"/>
-      <c r="K57" s="64"/>
+      <c r="K57" s="63"/>
       <c r="L57" s="59"/>
       <c r="M57" s="59"/>
       <c r="N57" s="53"/>
@@ -3748,7 +3880,7 @@
       <c r="H58" s="61"/>
       <c r="I58" s="59"/>
       <c r="J58" s="61"/>
-      <c r="K58" s="64"/>
+      <c r="K58" s="63"/>
       <c r="L58" s="59"/>
       <c r="M58" s="59"/>
       <c r="N58" s="53"/>
@@ -3773,7 +3905,7 @@
       <c r="H59" s="61"/>
       <c r="I59" s="59"/>
       <c r="J59" s="61"/>
-      <c r="K59" s="64"/>
+      <c r="K59" s="63"/>
       <c r="L59" s="59"/>
       <c r="M59" s="59"/>
       <c r="N59" s="53"/>
@@ -3798,7 +3930,7 @@
       <c r="H60" s="61"/>
       <c r="I60" s="59"/>
       <c r="J60" s="61"/>
-      <c r="K60" s="64"/>
+      <c r="K60" s="63"/>
       <c r="L60" s="59"/>
       <c r="M60" s="59"/>
       <c r="N60" s="53"/>
@@ -3823,7 +3955,7 @@
       <c r="H61" s="61"/>
       <c r="I61" s="59"/>
       <c r="J61" s="61"/>
-      <c r="K61" s="64"/>
+      <c r="K61" s="63"/>
       <c r="L61" s="59"/>
       <c r="M61" s="59"/>
       <c r="N61" s="53"/>
@@ -3848,7 +3980,7 @@
       <c r="H62" s="61"/>
       <c r="I62" s="59"/>
       <c r="J62" s="61"/>
-      <c r="K62" s="64"/>
+      <c r="K62" s="63"/>
       <c r="L62" s="59"/>
       <c r="M62" s="59"/>
       <c r="N62" s="53"/>
@@ -3873,7 +4005,7 @@
       <c r="H63" s="61"/>
       <c r="I63" s="59"/>
       <c r="J63" s="61"/>
-      <c r="K63" s="64"/>
+      <c r="K63" s="63"/>
       <c r="L63" s="59"/>
       <c r="M63" s="59"/>
       <c r="N63" s="53"/>
@@ -3898,7 +4030,7 @@
       <c r="H64" s="61"/>
       <c r="I64" s="59"/>
       <c r="J64" s="61"/>
-      <c r="K64" s="64"/>
+      <c r="K64" s="63"/>
       <c r="L64" s="59"/>
       <c r="M64" s="59"/>
       <c r="N64" s="53"/>
@@ -3923,7 +4055,7 @@
       <c r="H65" s="61"/>
       <c r="I65" s="59"/>
       <c r="J65" s="61"/>
-      <c r="K65" s="64"/>
+      <c r="K65" s="63"/>
       <c r="L65" s="59"/>
       <c r="M65" s="59"/>
       <c r="N65" s="53"/>
@@ -3948,7 +4080,7 @@
       <c r="H66" s="61"/>
       <c r="I66" s="59"/>
       <c r="J66" s="61"/>
-      <c r="K66" s="64"/>
+      <c r="K66" s="63"/>
       <c r="L66" s="59"/>
       <c r="M66" s="59"/>
       <c r="N66" s="53"/>
@@ -3973,7 +4105,7 @@
       <c r="H67" s="61"/>
       <c r="I67" s="59"/>
       <c r="J67" s="61"/>
-      <c r="K67" s="64"/>
+      <c r="K67" s="63"/>
       <c r="L67" s="59"/>
       <c r="M67" s="59"/>
       <c r="N67" s="53"/>
@@ -3998,7 +4130,7 @@
       <c r="H68" s="61"/>
       <c r="I68" s="59"/>
       <c r="J68" s="61"/>
-      <c r="K68" s="64"/>
+      <c r="K68" s="63"/>
       <c r="L68" s="59"/>
       <c r="M68" s="59"/>
       <c r="N68" s="53"/>
@@ -4023,7 +4155,7 @@
       <c r="H69" s="61"/>
       <c r="I69" s="59"/>
       <c r="J69" s="61"/>
-      <c r="K69" s="64"/>
+      <c r="K69" s="63"/>
       <c r="L69" s="59"/>
       <c r="M69" s="59"/>
       <c r="N69" s="53"/>
@@ -4048,7 +4180,7 @@
       <c r="H70" s="61"/>
       <c r="I70" s="59"/>
       <c r="J70" s="61"/>
-      <c r="K70" s="64"/>
+      <c r="K70" s="63"/>
       <c r="L70" s="59"/>
       <c r="M70" s="59"/>
       <c r="N70" s="53"/>
@@ -4073,7 +4205,7 @@
       <c r="H71" s="61"/>
       <c r="I71" s="59"/>
       <c r="J71" s="61"/>
-      <c r="K71" s="64"/>
+      <c r="K71" s="63"/>
       <c r="L71" s="59"/>
       <c r="M71" s="59"/>
       <c r="N71" s="53"/>
@@ -4098,7 +4230,7 @@
       <c r="H72" s="61"/>
       <c r="I72" s="59"/>
       <c r="J72" s="61"/>
-      <c r="K72" s="64"/>
+      <c r="K72" s="63"/>
       <c r="L72" s="59"/>
       <c r="M72" s="59"/>
       <c r="N72" s="59"/>
@@ -4123,7 +4255,7 @@
       <c r="H73" s="61"/>
       <c r="I73" s="59"/>
       <c r="J73" s="61"/>
-      <c r="K73" s="64"/>
+      <c r="K73" s="63"/>
       <c r="L73" s="59"/>
       <c r="M73" s="59"/>
       <c r="N73" s="59"/>
@@ -4148,7 +4280,7 @@
       <c r="H74" s="61"/>
       <c r="I74" s="59"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="64"/>
+      <c r="K74" s="63"/>
       <c r="L74" s="59"/>
       <c r="M74" s="59"/>
       <c r="N74" s="59"/>
@@ -4173,7 +4305,7 @@
       <c r="H75" s="61"/>
       <c r="I75" s="59"/>
       <c r="J75" s="61"/>
-      <c r="K75" s="64"/>
+      <c r="K75" s="63"/>
       <c r="L75" s="59"/>
       <c r="M75" s="59"/>
       <c r="N75" s="59"/>
@@ -4198,7 +4330,7 @@
       <c r="H76" s="61"/>
       <c r="I76" s="59"/>
       <c r="J76" s="61"/>
-      <c r="K76" s="64"/>
+      <c r="K76" s="63"/>
       <c r="L76" s="59"/>
       <c r="M76" s="59"/>
       <c r="N76" s="59"/>
@@ -4223,7 +4355,7 @@
       <c r="H77" s="61"/>
       <c r="I77" s="59"/>
       <c r="J77" s="61"/>
-      <c r="K77" s="64"/>
+      <c r="K77" s="63"/>
       <c r="L77" s="59"/>
       <c r="M77" s="59"/>
       <c r="N77" s="59"/>
@@ -4248,7 +4380,7 @@
       <c r="H78" s="61"/>
       <c r="I78" s="59"/>
       <c r="J78" s="61"/>
-      <c r="K78" s="64"/>
+      <c r="K78" s="63"/>
       <c r="L78" s="59"/>
       <c r="M78" s="59"/>
       <c r="N78" s="59"/>
@@ -4273,7 +4405,7 @@
       <c r="H79" s="61"/>
       <c r="I79" s="59"/>
       <c r="J79" s="61"/>
-      <c r="K79" s="64"/>
+      <c r="K79" s="63"/>
       <c r="L79" s="59"/>
       <c r="M79" s="59"/>
       <c r="N79" s="59"/>
@@ -4298,7 +4430,7 @@
       <c r="H80" s="61"/>
       <c r="I80" s="59"/>
       <c r="J80" s="61"/>
-      <c r="K80" s="64"/>
+      <c r="K80" s="63"/>
       <c r="L80" s="59"/>
       <c r="M80" s="59"/>
       <c r="N80" s="59"/>
@@ -4323,7 +4455,7 @@
       <c r="H81" s="61"/>
       <c r="I81" s="59"/>
       <c r="J81" s="61"/>
-      <c r="K81" s="64"/>
+      <c r="K81" s="63"/>
       <c r="L81" s="59"/>
       <c r="M81" s="59"/>
       <c r="N81" s="59"/>
@@ -4348,7 +4480,7 @@
       <c r="H82" s="61"/>
       <c r="I82" s="59"/>
       <c r="J82" s="61"/>
-      <c r="K82" s="64"/>
+      <c r="K82" s="63"/>
       <c r="L82" s="59"/>
       <c r="M82" s="59"/>
       <c r="N82" s="59"/>
@@ -4373,7 +4505,7 @@
       <c r="H83" s="61"/>
       <c r="I83" s="59"/>
       <c r="J83" s="61"/>
-      <c r="K83" s="64"/>
+      <c r="K83" s="63"/>
       <c r="L83" s="59"/>
       <c r="M83" s="59"/>
       <c r="N83" s="59"/>
@@ -4398,7 +4530,7 @@
       <c r="H84" s="61"/>
       <c r="I84" s="59"/>
       <c r="J84" s="61"/>
-      <c r="K84" s="64"/>
+      <c r="K84" s="63"/>
       <c r="L84" s="59"/>
       <c r="M84" s="59"/>
       <c r="N84" s="59"/>
@@ -4423,7 +4555,7 @@
       <c r="H85" s="61"/>
       <c r="I85" s="59"/>
       <c r="J85" s="61"/>
-      <c r="K85" s="64"/>
+      <c r="K85" s="63"/>
       <c r="L85" s="59"/>
       <c r="M85" s="59"/>
       <c r="N85" s="59"/>
@@ -4448,7 +4580,7 @@
       <c r="H86" s="61"/>
       <c r="I86" s="59"/>
       <c r="J86" s="61"/>
-      <c r="K86" s="64"/>
+      <c r="K86" s="63"/>
       <c r="L86" s="59"/>
       <c r="M86" s="59"/>
       <c r="N86" s="59"/>
@@ -4473,7 +4605,7 @@
       <c r="H87" s="61"/>
       <c r="I87" s="59"/>
       <c r="J87" s="61"/>
-      <c r="K87" s="64"/>
+      <c r="K87" s="63"/>
       <c r="L87" s="59"/>
       <c r="M87" s="59"/>
       <c r="N87" s="59"/>
@@ -4498,7 +4630,7 @@
       <c r="H88" s="61"/>
       <c r="I88" s="59"/>
       <c r="J88" s="61"/>
-      <c r="K88" s="64"/>
+      <c r="K88" s="63"/>
       <c r="L88" s="59"/>
       <c r="M88" s="59"/>
       <c r="N88" s="59"/>
@@ -4523,7 +4655,7 @@
       <c r="H89" s="61"/>
       <c r="I89" s="59"/>
       <c r="J89" s="61"/>
-      <c r="K89" s="64"/>
+      <c r="K89" s="63"/>
       <c r="L89" s="59"/>
       <c r="M89" s="59"/>
       <c r="N89" s="59"/>
@@ -4548,7 +4680,7 @@
       <c r="H90" s="61"/>
       <c r="I90" s="59"/>
       <c r="J90" s="61"/>
-      <c r="K90" s="64"/>
+      <c r="K90" s="63"/>
       <c r="L90" s="59"/>
       <c r="M90" s="59"/>
       <c r="N90" s="59"/>
@@ -4573,7 +4705,7 @@
       <c r="H91" s="61"/>
       <c r="I91" s="59"/>
       <c r="J91" s="61"/>
-      <c r="K91" s="64"/>
+      <c r="K91" s="63"/>
       <c r="L91" s="59"/>
       <c r="M91" s="59"/>
       <c r="N91" s="59"/>
@@ -4598,7 +4730,7 @@
       <c r="H92" s="61"/>
       <c r="I92" s="59"/>
       <c r="J92" s="61"/>
-      <c r="K92" s="64"/>
+      <c r="K92" s="63"/>
       <c r="L92" s="59"/>
       <c r="M92" s="59"/>
       <c r="N92" s="59"/>
@@ -4623,7 +4755,7 @@
       <c r="H93" s="61"/>
       <c r="I93" s="59"/>
       <c r="J93" s="61"/>
-      <c r="K93" s="64"/>
+      <c r="K93" s="63"/>
       <c r="L93" s="59"/>
       <c r="M93" s="59"/>
       <c r="N93" s="59"/>
@@ -4648,7 +4780,7 @@
       <c r="H94" s="61"/>
       <c r="I94" s="59"/>
       <c r="J94" s="61"/>
-      <c r="K94" s="64"/>
+      <c r="K94" s="63"/>
       <c r="L94" s="59"/>
       <c r="M94" s="59"/>
       <c r="N94" s="59"/>
@@ -4673,7 +4805,7 @@
       <c r="H95" s="61"/>
       <c r="I95" s="59"/>
       <c r="J95" s="61"/>
-      <c r="K95" s="64"/>
+      <c r="K95" s="63"/>
       <c r="L95" s="59"/>
       <c r="M95" s="59"/>
       <c r="N95" s="59"/>
@@ -4698,7 +4830,7 @@
       <c r="H96" s="61"/>
       <c r="I96" s="59"/>
       <c r="J96" s="61"/>
-      <c r="K96" s="64"/>
+      <c r="K96" s="63"/>
       <c r="L96" s="59"/>
       <c r="M96" s="59"/>
       <c r="N96" s="59"/>
@@ -4723,7 +4855,7 @@
       <c r="H97" s="61"/>
       <c r="I97" s="59"/>
       <c r="J97" s="61"/>
-      <c r="K97" s="64"/>
+      <c r="K97" s="63"/>
       <c r="L97" s="59"/>
       <c r="M97" s="59"/>
       <c r="N97" s="59"/>
@@ -4748,7 +4880,7 @@
       <c r="H98" s="61"/>
       <c r="I98" s="59"/>
       <c r="J98" s="61"/>
-      <c r="K98" s="64"/>
+      <c r="K98" s="63"/>
       <c r="L98" s="59"/>
       <c r="M98" s="59"/>
       <c r="N98" s="59"/>
@@ -4773,7 +4905,7 @@
       <c r="H99" s="61"/>
       <c r="I99" s="59"/>
       <c r="J99" s="61"/>
-      <c r="K99" s="64"/>
+      <c r="K99" s="63"/>
       <c r="L99" s="59"/>
       <c r="M99" s="59"/>
       <c r="N99" s="59"/>
@@ -4798,7 +4930,7 @@
       <c r="H100" s="61"/>
       <c r="I100" s="59"/>
       <c r="J100" s="61"/>
-      <c r="K100" s="64"/>
+      <c r="K100" s="63"/>
       <c r="L100" s="59"/>
       <c r="M100" s="59"/>
       <c r="N100" s="59"/>
@@ -4823,7 +4955,7 @@
       <c r="H101" s="61"/>
       <c r="I101" s="59"/>
       <c r="J101" s="61"/>
-      <c r="K101" s="64"/>
+      <c r="K101" s="63"/>
       <c r="L101" s="59"/>
       <c r="M101" s="59"/>
       <c r="N101" s="59"/>
@@ -4848,7 +4980,7 @@
       <c r="H102" s="61"/>
       <c r="I102" s="59"/>
       <c r="J102" s="61"/>
-      <c r="K102" s="64"/>
+      <c r="K102" s="63"/>
       <c r="L102" s="59"/>
       <c r="M102" s="59"/>
       <c r="N102" s="59"/>
@@ -4873,7 +5005,7 @@
       <c r="H103" s="61"/>
       <c r="I103" s="59"/>
       <c r="J103" s="61"/>
-      <c r="K103" s="64"/>
+      <c r="K103" s="63"/>
       <c r="L103" s="59"/>
       <c r="M103" s="59"/>
       <c r="N103" s="59"/>
@@ -4898,7 +5030,7 @@
       <c r="H104" s="61"/>
       <c r="I104" s="59"/>
       <c r="J104" s="61"/>
-      <c r="K104" s="64"/>
+      <c r="K104" s="63"/>
       <c r="L104" s="59"/>
       <c r="M104" s="59"/>
       <c r="N104" s="59"/>
@@ -4923,7 +5055,7 @@
       <c r="H105" s="61"/>
       <c r="I105" s="59"/>
       <c r="J105" s="61"/>
-      <c r="K105" s="64"/>
+      <c r="K105" s="63"/>
       <c r="L105" s="59"/>
       <c r="M105" s="59"/>
       <c r="N105" s="59"/>
@@ -4948,7 +5080,7 @@
       <c r="H106" s="61"/>
       <c r="I106" s="59"/>
       <c r="J106" s="61"/>
-      <c r="K106" s="64"/>
+      <c r="K106" s="63"/>
       <c r="L106" s="59"/>
       <c r="M106" s="59"/>
       <c r="N106" s="59"/>
@@ -4973,7 +5105,7 @@
       <c r="H107" s="61"/>
       <c r="I107" s="59"/>
       <c r="J107" s="61"/>
-      <c r="K107" s="64"/>
+      <c r="K107" s="63"/>
       <c r="L107" s="59"/>
       <c r="M107" s="59"/>
       <c r="N107" s="59"/>
@@ -4998,7 +5130,7 @@
       <c r="H108" s="61"/>
       <c r="I108" s="59"/>
       <c r="J108" s="61"/>
-      <c r="K108" s="64"/>
+      <c r="K108" s="63"/>
       <c r="L108" s="59"/>
       <c r="M108" s="59"/>
       <c r="N108" s="59"/>
@@ -5023,7 +5155,7 @@
       <c r="H109" s="61"/>
       <c r="I109" s="59"/>
       <c r="J109" s="61"/>
-      <c r="K109" s="64"/>
+      <c r="K109" s="63"/>
       <c r="L109" s="59"/>
       <c r="M109" s="59"/>
       <c r="N109" s="59"/>
@@ -5048,7 +5180,7 @@
       <c r="H110" s="61"/>
       <c r="I110" s="59"/>
       <c r="J110" s="61"/>
-      <c r="K110" s="64"/>
+      <c r="K110" s="63"/>
       <c r="L110" s="59"/>
       <c r="M110" s="59"/>
       <c r="N110" s="59"/>
@@ -5073,7 +5205,7 @@
       <c r="H111" s="61"/>
       <c r="I111" s="59"/>
       <c r="J111" s="61"/>
-      <c r="K111" s="64"/>
+      <c r="K111" s="63"/>
       <c r="L111" s="59"/>
       <c r="M111" s="59"/>
       <c r="N111" s="59"/>
@@ -5098,7 +5230,7 @@
       <c r="H112" s="61"/>
       <c r="I112" s="59"/>
       <c r="J112" s="61"/>
-      <c r="K112" s="64"/>
+      <c r="K112" s="63"/>
       <c r="L112" s="59"/>
       <c r="M112" s="59"/>
       <c r="N112" s="59"/>
@@ -5123,7 +5255,7 @@
       <c r="H113" s="61"/>
       <c r="I113" s="59"/>
       <c r="J113" s="61"/>
-      <c r="K113" s="64"/>
+      <c r="K113" s="63"/>
       <c r="L113" s="59"/>
       <c r="M113" s="59"/>
       <c r="N113" s="59"/>
@@ -5148,7 +5280,7 @@
       <c r="H114" s="61"/>
       <c r="I114" s="59"/>
       <c r="J114" s="61"/>
-      <c r="K114" s="64"/>
+      <c r="K114" s="63"/>
       <c r="L114" s="59"/>
       <c r="M114" s="59"/>
       <c r="N114" s="59"/>
@@ -5173,7 +5305,7 @@
       <c r="H115" s="61"/>
       <c r="I115" s="59"/>
       <c r="J115" s="61"/>
-      <c r="K115" s="64"/>
+      <c r="K115" s="63"/>
       <c r="L115" s="59"/>
       <c r="M115" s="59"/>
       <c r="N115" s="59"/>
@@ -5198,7 +5330,7 @@
       <c r="H116" s="61"/>
       <c r="I116" s="59"/>
       <c r="J116" s="61"/>
-      <c r="K116" s="64"/>
+      <c r="K116" s="63"/>
       <c r="L116" s="59"/>
       <c r="M116" s="59"/>
       <c r="N116" s="59"/>
@@ -5223,7 +5355,7 @@
       <c r="H117" s="61"/>
       <c r="I117" s="59"/>
       <c r="J117" s="61"/>
-      <c r="K117" s="64"/>
+      <c r="K117" s="63"/>
       <c r="L117" s="59"/>
       <c r="M117" s="59"/>
       <c r="N117" s="59"/>
@@ -5248,7 +5380,7 @@
       <c r="H118" s="61"/>
       <c r="I118" s="59"/>
       <c r="J118" s="61"/>
-      <c r="K118" s="64"/>
+      <c r="K118" s="63"/>
       <c r="L118" s="59"/>
       <c r="M118" s="59"/>
       <c r="N118" s="59"/>
@@ -5273,7 +5405,7 @@
       <c r="H119" s="61"/>
       <c r="I119" s="59"/>
       <c r="J119" s="61"/>
-      <c r="K119" s="64"/>
+      <c r="K119" s="63"/>
       <c r="L119" s="59"/>
       <c r="M119" s="59"/>
       <c r="N119" s="59"/>
@@ -5298,7 +5430,7 @@
       <c r="H120" s="61"/>
       <c r="I120" s="59"/>
       <c r="J120" s="61"/>
-      <c r="K120" s="64"/>
+      <c r="K120" s="63"/>
       <c r="L120" s="59"/>
       <c r="M120" s="59"/>
       <c r="N120" s="59"/>
@@ -5323,7 +5455,7 @@
       <c r="H121" s="61"/>
       <c r="I121" s="59"/>
       <c r="J121" s="61"/>
-      <c r="K121" s="64"/>
+      <c r="K121" s="63"/>
       <c r="L121" s="59"/>
       <c r="M121" s="59"/>
       <c r="N121" s="59"/>
@@ -5348,7 +5480,7 @@
       <c r="H122" s="61"/>
       <c r="I122" s="59"/>
       <c r="J122" s="61"/>
-      <c r="K122" s="64"/>
+      <c r="K122" s="63"/>
       <c r="L122" s="59"/>
       <c r="M122" s="59"/>
       <c r="N122" s="59"/>
@@ -5373,7 +5505,7 @@
       <c r="H123" s="61"/>
       <c r="I123" s="59"/>
       <c r="J123" s="61"/>
-      <c r="K123" s="64"/>
+      <c r="K123" s="63"/>
       <c r="L123" s="59"/>
       <c r="M123" s="59"/>
       <c r="N123" s="59"/>
@@ -5398,7 +5530,7 @@
       <c r="H124" s="61"/>
       <c r="I124" s="59"/>
       <c r="J124" s="61"/>
-      <c r="K124" s="64"/>
+      <c r="K124" s="63"/>
       <c r="L124" s="59"/>
       <c r="M124" s="59"/>
       <c r="N124" s="59"/>
@@ -5423,7 +5555,7 @@
       <c r="H125" s="61"/>
       <c r="I125" s="59"/>
       <c r="J125" s="61"/>
-      <c r="K125" s="64"/>
+      <c r="K125" s="63"/>
       <c r="L125" s="59"/>
       <c r="M125" s="59"/>
       <c r="N125" s="59"/>
@@ -5448,7 +5580,7 @@
       <c r="H126" s="61"/>
       <c r="I126" s="59"/>
       <c r="J126" s="61"/>
-      <c r="K126" s="64"/>
+      <c r="K126" s="63"/>
       <c r="L126" s="59"/>
       <c r="M126" s="59"/>
       <c r="N126" s="59"/>
@@ -5473,7 +5605,7 @@
       <c r="H127" s="61"/>
       <c r="I127" s="59"/>
       <c r="J127" s="61"/>
-      <c r="K127" s="64"/>
+      <c r="K127" s="63"/>
       <c r="L127" s="59"/>
       <c r="M127" s="59"/>
       <c r="N127" s="59"/>
@@ -5498,7 +5630,7 @@
       <c r="H128" s="61"/>
       <c r="I128" s="59"/>
       <c r="J128" s="61"/>
-      <c r="K128" s="64"/>
+      <c r="K128" s="63"/>
       <c r="L128" s="59"/>
       <c r="M128" s="59"/>
       <c r="N128" s="59"/>
@@ -5519,7 +5651,7 @@
       <c r="H129" s="61"/>
       <c r="I129" s="59"/>
       <c r="J129" s="61"/>
-      <c r="K129" s="64"/>
+      <c r="K129" s="63"/>
       <c r="L129" s="59"/>
       <c r="M129" s="59"/>
       <c r="N129" s="59"/>
@@ -5540,7 +5672,7 @@
       <c r="H130" s="61"/>
       <c r="I130" s="59"/>
       <c r="J130" s="61"/>
-      <c r="K130" s="64"/>
+      <c r="K130" s="63"/>
       <c r="L130" s="59"/>
       <c r="M130" s="59"/>
       <c r="N130" s="59"/>
@@ -5561,7 +5693,7 @@
       <c r="H131" s="61"/>
       <c r="I131" s="59"/>
       <c r="J131" s="61"/>
-      <c r="K131" s="64"/>
+      <c r="K131" s="63"/>
       <c r="L131" s="59"/>
       <c r="M131" s="59"/>
       <c r="N131" s="59"/>
@@ -5582,7 +5714,7 @@
       <c r="H132" s="61"/>
       <c r="I132" s="59"/>
       <c r="J132" s="61"/>
-      <c r="K132" s="64"/>
+      <c r="K132" s="63"/>
       <c r="L132" s="59"/>
       <c r="M132" s="59"/>
       <c r="N132" s="59"/>
@@ -5603,7 +5735,7 @@
       <c r="H133" s="61"/>
       <c r="I133" s="59"/>
       <c r="J133" s="61"/>
-      <c r="K133" s="64"/>
+      <c r="K133" s="63"/>
       <c r="L133" s="59"/>
       <c r="M133" s="59"/>
       <c r="N133" s="59"/>
@@ -5624,7 +5756,7 @@
       <c r="H134" s="61"/>
       <c r="I134" s="59"/>
       <c r="J134" s="61"/>
-      <c r="K134" s="64"/>
+      <c r="K134" s="63"/>
       <c r="L134" s="59"/>
       <c r="M134" s="59"/>
       <c r="N134" s="59"/>
@@ -5645,7 +5777,7 @@
       <c r="H135" s="61"/>
       <c r="I135" s="59"/>
       <c r="J135" s="61"/>
-      <c r="K135" s="64"/>
+      <c r="K135" s="63"/>
       <c r="L135" s="59"/>
       <c r="M135" s="59"/>
       <c r="N135" s="59"/>
@@ -5666,7 +5798,7 @@
       <c r="H136" s="61"/>
       <c r="I136" s="59"/>
       <c r="J136" s="61"/>
-      <c r="K136" s="64"/>
+      <c r="K136" s="63"/>
       <c r="L136" s="59"/>
       <c r="M136" s="59"/>
       <c r="N136" s="59"/>
@@ -5687,7 +5819,7 @@
       <c r="H137" s="61"/>
       <c r="I137" s="59"/>
       <c r="J137" s="61"/>
-      <c r="K137" s="64"/>
+      <c r="K137" s="63"/>
       <c r="L137" s="59"/>
       <c r="M137" s="59"/>
       <c r="N137" s="59"/>
@@ -5708,7 +5840,7 @@
       <c r="H138" s="61"/>
       <c r="I138" s="59"/>
       <c r="J138" s="61"/>
-      <c r="K138" s="64"/>
+      <c r="K138" s="63"/>
       <c r="L138" s="59"/>
       <c r="M138" s="59"/>
       <c r="N138" s="59"/>
@@ -5729,7 +5861,7 @@
       <c r="H139" s="61"/>
       <c r="I139" s="59"/>
       <c r="J139" s="61"/>
-      <c r="K139" s="64"/>
+      <c r="K139" s="63"/>
       <c r="L139" s="59"/>
       <c r="M139" s="59"/>
       <c r="N139" s="59"/>
@@ -5750,7 +5882,7 @@
       <c r="H140" s="61"/>
       <c r="I140" s="59"/>
       <c r="J140" s="61"/>
-      <c r="K140" s="64"/>
+      <c r="K140" s="63"/>
       <c r="L140" s="59"/>
       <c r="M140" s="59"/>
       <c r="N140" s="59"/>
@@ -5771,7 +5903,7 @@
       <c r="H141" s="61"/>
       <c r="I141" s="59"/>
       <c r="J141" s="61"/>
-      <c r="K141" s="64"/>
+      <c r="K141" s="63"/>
       <c r="L141" s="59"/>
       <c r="M141" s="59"/>
       <c r="N141" s="59"/>
@@ -5792,7 +5924,7 @@
       <c r="H142" s="61"/>
       <c r="I142" s="59"/>
       <c r="J142" s="61"/>
-      <c r="K142" s="64"/>
+      <c r="K142" s="63"/>
       <c r="L142" s="59"/>
       <c r="M142" s="59"/>
       <c r="N142" s="59"/>
@@ -5813,7 +5945,7 @@
       <c r="H143" s="61"/>
       <c r="I143" s="59"/>
       <c r="J143" s="61"/>
-      <c r="K143" s="64"/>
+      <c r="K143" s="63"/>
       <c r="L143" s="59"/>
       <c r="M143" s="59"/>
       <c r="N143" s="59"/>
@@ -5834,7 +5966,7 @@
       <c r="H144" s="61"/>
       <c r="I144" s="59"/>
       <c r="J144" s="61"/>
-      <c r="K144" s="64"/>
+      <c r="K144" s="63"/>
       <c r="L144" s="59"/>
       <c r="M144" s="59"/>
       <c r="N144" s="59"/>
@@ -5855,7 +5987,7 @@
       <c r="H145" s="61"/>
       <c r="I145" s="59"/>
       <c r="J145" s="61"/>
-      <c r="K145" s="64"/>
+      <c r="K145" s="63"/>
       <c r="L145" s="59"/>
       <c r="M145" s="59"/>
       <c r="N145" s="59"/>
@@ -5876,7 +6008,7 @@
       <c r="H146" s="61"/>
       <c r="I146" s="59"/>
       <c r="J146" s="61"/>
-      <c r="K146" s="64"/>
+      <c r="K146" s="63"/>
       <c r="L146" s="59"/>
       <c r="M146" s="59"/>
       <c r="N146" s="59"/>
@@ -5897,7 +6029,7 @@
       <c r="H147" s="61"/>
       <c r="I147" s="59"/>
       <c r="J147" s="61"/>
-      <c r="K147" s="64"/>
+      <c r="K147" s="63"/>
       <c r="L147" s="59"/>
       <c r="M147" s="59"/>
       <c r="N147" s="59"/>
@@ -5918,7 +6050,7 @@
       <c r="H148" s="61"/>
       <c r="I148" s="59"/>
       <c r="J148" s="61"/>
-      <c r="K148" s="64"/>
+      <c r="K148" s="63"/>
       <c r="L148" s="59"/>
       <c r="M148" s="59"/>
       <c r="N148" s="59"/>
@@ -5939,7 +6071,7 @@
       <c r="H149" s="61"/>
       <c r="I149" s="59"/>
       <c r="J149" s="61"/>
-      <c r="K149" s="64"/>
+      <c r="K149" s="63"/>
       <c r="L149" s="59"/>
       <c r="M149" s="59"/>
       <c r="N149" s="59"/>
@@ -5960,7 +6092,7 @@
       <c r="H150" s="61"/>
       <c r="I150" s="59"/>
       <c r="J150" s="61"/>
-      <c r="K150" s="64"/>
+      <c r="K150" s="63"/>
       <c r="L150" s="59"/>
       <c r="M150" s="59"/>
       <c r="N150" s="59"/>
@@ -5981,7 +6113,7 @@
       <c r="H151" s="61"/>
       <c r="I151" s="59"/>
       <c r="J151" s="61"/>
-      <c r="K151" s="64"/>
+      <c r="K151" s="63"/>
       <c r="L151" s="59"/>
       <c r="M151" s="59"/>
       <c r="N151" s="59"/>
@@ -6002,7 +6134,7 @@
       <c r="H152" s="61"/>
       <c r="I152" s="59"/>
       <c r="J152" s="61"/>
-      <c r="K152" s="64"/>
+      <c r="K152" s="63"/>
       <c r="L152" s="59"/>
       <c r="M152" s="59"/>
       <c r="N152" s="59"/>
@@ -6023,7 +6155,7 @@
       <c r="H153" s="61"/>
       <c r="I153" s="59"/>
       <c r="J153" s="61"/>
-      <c r="K153" s="64"/>
+      <c r="K153" s="63"/>
       <c r="L153" s="59"/>
       <c r="M153" s="59"/>
       <c r="N153" s="59"/>
@@ -6044,7 +6176,7 @@
       <c r="H154" s="61"/>
       <c r="I154" s="59"/>
       <c r="J154" s="61"/>
-      <c r="K154" s="64"/>
+      <c r="K154" s="63"/>
       <c r="L154" s="59"/>
       <c r="M154" s="59"/>
       <c r="N154" s="59"/>
@@ -6065,7 +6197,7 @@
       <c r="H155" s="61"/>
       <c r="I155" s="59"/>
       <c r="J155" s="61"/>
-      <c r="K155" s="64"/>
+      <c r="K155" s="63"/>
       <c r="L155" s="59"/>
       <c r="M155" s="59"/>
       <c r="N155" s="59"/>
@@ -6086,7 +6218,7 @@
       <c r="H156" s="61"/>
       <c r="I156" s="59"/>
       <c r="J156" s="61"/>
-      <c r="K156" s="64"/>
+      <c r="K156" s="63"/>
       <c r="L156" s="59"/>
       <c r="M156" s="59"/>
       <c r="N156" s="59"/>
@@ -6107,7 +6239,7 @@
       <c r="H157" s="61"/>
       <c r="I157" s="59"/>
       <c r="J157" s="61"/>
-      <c r="K157" s="64"/>
+      <c r="K157" s="63"/>
       <c r="L157" s="59"/>
       <c r="M157" s="59"/>
       <c r="N157" s="59"/>
@@ -6128,7 +6260,7 @@
       <c r="H158" s="61"/>
       <c r="I158" s="59"/>
       <c r="J158" s="61"/>
-      <c r="K158" s="64"/>
+      <c r="K158" s="63"/>
       <c r="L158" s="59"/>
       <c r="M158" s="59"/>
       <c r="N158" s="59"/>
@@ -6149,7 +6281,7 @@
       <c r="H159" s="61"/>
       <c r="I159" s="59"/>
       <c r="J159" s="61"/>
-      <c r="K159" s="64"/>
+      <c r="K159" s="63"/>
       <c r="L159" s="59"/>
       <c r="M159" s="59"/>
       <c r="N159" s="59"/>
@@ -6170,7 +6302,7 @@
       <c r="H160" s="61"/>
       <c r="I160" s="59"/>
       <c r="J160" s="61"/>
-      <c r="K160" s="64"/>
+      <c r="K160" s="63"/>
       <c r="L160" s="59"/>
       <c r="M160" s="59"/>
       <c r="N160" s="59"/>
@@ -6191,7 +6323,7 @@
       <c r="H161" s="61"/>
       <c r="I161" s="59"/>
       <c r="J161" s="61"/>
-      <c r="K161" s="64"/>
+      <c r="K161" s="63"/>
       <c r="L161" s="59"/>
       <c r="M161" s="59"/>
       <c r="N161" s="59"/>
@@ -6212,7 +6344,7 @@
       <c r="H162" s="61"/>
       <c r="I162" s="59"/>
       <c r="J162" s="61"/>
-      <c r="K162" s="64"/>
+      <c r="K162" s="63"/>
       <c r="L162" s="59"/>
       <c r="M162" s="59"/>
       <c r="N162" s="59"/>
@@ -6442,19 +6574,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6492,8 +6624,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6505,8 +6637,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6518,8 +6650,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6531,8 +6663,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6544,8 +6676,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6557,8 +6689,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6570,8 +6702,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6583,8 +6715,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6645,36 +6777,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6959,36 +7091,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7273,36 +7405,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7589,36 +7721,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_马丁组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="7245" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <oleSize ref="A1:M16"/>
+  <oleSize ref="A4:M19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>No</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>田东兴</t>
+  </si>
+  <si>
+    <t>websocket长链接支持，测试环境之前让虚空帮忙配置过，包含wss支持，长链接维持时间，并发数等参数</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -448,8 +451,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -491,7 +494,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -570,23 +572,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -601,60 +596,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -667,14 +619,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,25 +656,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,6 +714,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
@@ -728,13 +737,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -782,7 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,13 +802,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +832,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +874,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,31 +934,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,97 +958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,6 +1150,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1159,6 +1179,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,24 +1224,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1207,32 +1235,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,172 +1252,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6825,29 +6827,29 @@
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>"紧急,不紧急"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
-      <formula1>"通过,不通过"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>"紧急,不紧急"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 V$1:V$1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 V$1:V$1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N71">
       <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
+      <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -7544,8 +7546,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7675,19 +7677,39 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" ht="16.5" spans="1:13">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+    <row r="5" ht="75" customHeight="1" spans="1:13">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="I5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="M5" s="13"/>
     </row>
     <row r="6" ht="16.5" spans="1:13">
@@ -7859,24 +7881,18 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5:F16">
+      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I8">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I5:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16">
-      <formula1>"新增,修改,删除"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7890,7 +7906,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -8020,19 +8036,39 @@
       </c>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" ht="16.5" spans="1:13">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+    <row r="5" ht="75" customHeight="1" spans="1:13">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="I5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="M5" s="13"/>
     </row>
     <row r="6" ht="16.5" spans="1:13">
@@ -8204,24 +8240,18 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
+      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I8">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I5:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16">
-      <formula1>"新增,修改,删除"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8568,28 +8598,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
